--- a/Arquivos_Exercicios_Python_Excel/02_02_Notas.xlsx
+++ b/Arquivos_Exercicios_Python_Excel/02_02_Notas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\85189741\Documents\GitHub\pythonPandasLinkedin\Arquivos_Exercicios_Python_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C812F5C1-F850-465E-BA8B-7DB9ADD3D6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4706B0-F6B5-42EA-AD2C-2A5C78332751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alunos" sheetId="1" r:id="rId1"/>
